--- a/information/Виды сведений.xlsx
+++ b/information/Виды сведений.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28F72DF-CD8A-458C-BC41-83372CCA5F82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3300" yWindow="3300" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1254" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="137">
   <si>
     <t>Ведомство</t>
   </si>
@@ -465,13 +466,25 @@
   </si>
   <si>
     <t>Внедрение</t>
+  </si>
+  <si>
+    <t>Универсальный сервис отправки заявлений и смены статусов на региональном портале государственных услуг (функций) Смоленской области</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	VS02871v002-670107_3T</t>
+  </si>
+  <si>
+    <t>Предоставление сведений из реестра виноградных насаждений</t>
+  </si>
+  <si>
+    <t>VS01114v003-MCXR01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +530,27 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF2C2D2E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -568,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -673,6 +707,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -952,28 +990,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="35.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.26953125" customWidth="1"/>
+    <col min="9" max="9" width="30.7265625" customWidth="1"/>
+    <col min="10" max="10" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
@@ -1033,7 +1071,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="43.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +1099,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" s="29" customFormat="1" ht="111" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="29" customFormat="1" ht="111" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>18</v>
       </c>
@@ -1089,7 +1127,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>25</v>
       </c>
@@ -1115,7 +1153,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="72.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>25</v>
       </c>
@@ -1141,7 +1179,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="101.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>25</v>
       </c>
@@ -1167,7 +1205,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
@@ -1193,7 +1231,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>40</v>
       </c>
@@ -1219,7 +1257,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>40</v>
       </c>
@@ -1245,7 +1283,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>40</v>
       </c>
@@ -1271,7 +1309,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:10" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>40</v>
       </c>
@@ -1297,7 +1335,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>40</v>
       </c>
@@ -1325,7 +1363,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:10" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>40</v>
       </c>
@@ -1351,7 +1389,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="18"/>
     </row>
-    <row r="15" spans="1:10" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>40</v>
       </c>
@@ -1377,7 +1415,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="101.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>40</v>
       </c>
@@ -1405,7 +1443,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="101.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>40</v>
       </c>
@@ -1431,7 +1469,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="101.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>40</v>
       </c>
@@ -1457,7 +1495,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="72.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>40</v>
       </c>
@@ -1483,7 +1521,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="1:10" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="72.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>40</v>
       </c>
@@ -1509,7 +1547,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:10" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="72.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>40</v>
       </c>
@@ -1535,7 +1573,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="18"/>
     </row>
-    <row r="22" spans="1:10" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="87" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>40</v>
       </c>
@@ -1561,7 +1599,7 @@
       <c r="I22" s="15"/>
       <c r="J22" s="18"/>
     </row>
-    <row r="23" spans="1:10" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="87" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>40</v>
       </c>
@@ -1587,7 +1625,7 @@
       <c r="I23" s="15"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="87" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>40</v>
       </c>
@@ -1613,7 +1651,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>40</v>
       </c>
@@ -1639,7 +1677,7 @@
       <c r="I25" s="15"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>40</v>
       </c>
@@ -1665,7 +1703,7 @@
       <c r="I26" s="15"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="76.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="76.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>40</v>
       </c>
@@ -1691,7 +1729,7 @@
       <c r="I27" s="15"/>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
         <v>74</v>
       </c>
@@ -1717,7 +1755,7 @@
       <c r="I28" s="15"/>
       <c r="J28" s="18"/>
     </row>
-    <row r="29" spans="1:10" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>74</v>
       </c>
@@ -1743,7 +1781,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="18"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="33" t="s">
         <v>74</v>
       </c>
@@ -1771,7 +1809,7 @@
       <c r="I30" s="15"/>
       <c r="J30" s="18"/>
     </row>
-    <row r="31" spans="1:10" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A31" s="33" t="s">
         <v>74</v>
       </c>
@@ -1799,7 +1837,7 @@
       <c r="I31" s="15"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
         <v>74</v>
       </c>
@@ -1827,7 +1865,7 @@
       <c r="I32" s="15"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="183.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
         <v>87</v>
       </c>
@@ -1855,7 +1893,7 @@
       <c r="I33" s="15"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="71.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="71.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
         <v>87</v>
       </c>
@@ -1881,7 +1919,7 @@
       <c r="I34" s="15"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="66" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="66" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
         <v>87</v>
       </c>
@@ -1909,7 +1947,7 @@
       <c r="I35" s="24"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:10" ht="65.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="65.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="33" t="s">
         <v>87</v>
       </c>
@@ -1937,7 +1975,7 @@
       <c r="I36" s="15"/>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:10" ht="94.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="94.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
         <v>87</v>
       </c>
@@ -1965,7 +2003,7 @@
       <c r="I37" s="15"/>
       <c r="J37" s="18"/>
     </row>
-    <row r="38" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="33" t="s">
         <v>102</v>
       </c>
@@ -1991,7 +2029,7 @@
       <c r="I38" s="15"/>
       <c r="J38" s="18"/>
     </row>
-    <row r="39" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
         <v>105</v>
       </c>
@@ -2019,7 +2057,7 @@
       <c r="I39" s="15"/>
       <c r="J39" s="18"/>
     </row>
-    <row r="40" spans="1:10" ht="76.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="76.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
         <v>105</v>
       </c>
@@ -2045,7 +2083,7 @@
       <c r="I40" s="20"/>
       <c r="J40" s="25"/>
     </row>
-    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>111</v>
       </c>
@@ -2071,7 +2109,7 @@
       <c r="I41" s="20"/>
       <c r="J41" s="25"/>
     </row>
-    <row r="42" spans="1:10" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="43.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
         <v>111</v>
       </c>
@@ -2097,7 +2135,7 @@
       <c r="I42" s="20"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="1:10" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="43.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
         <v>111</v>
       </c>
@@ -2123,7 +2161,7 @@
       <c r="I43" s="20"/>
       <c r="J43" s="25"/>
     </row>
-    <row r="44" spans="1:10" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
         <v>111</v>
       </c>
@@ -2149,7 +2187,7 @@
       <c r="I44" s="20"/>
       <c r="J44" s="25"/>
     </row>
-    <row r="45" spans="1:10" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
         <v>111</v>
       </c>
@@ -2175,7 +2213,7 @@
       <c r="I45" s="20"/>
       <c r="J45" s="25"/>
     </row>
-    <row r="46" spans="1:10" ht="84.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="84.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="34" t="s">
         <v>111</v>
       </c>
@@ -2201,7 +2239,7 @@
       <c r="I46" s="20"/>
       <c r="J46" s="25"/>
     </row>
-    <row r="47" spans="1:10" ht="93.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="93.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
         <v>111</v>
       </c>
@@ -2227,7 +2265,7 @@
       <c r="I47" s="20"/>
       <c r="J47" s="25"/>
     </row>
-    <row r="48" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="34" t="s">
         <v>127</v>
       </c>
@@ -2253,13 +2291,30 @@
       <c r="I48" s="27"/>
       <c r="J48" s="28"/>
     </row>
+    <row r="49" spans="5:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="E49" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" ht="87.5" x14ac:dyDescent="0.35">
+      <c r="E50" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="I3:J48 A2:H48" name="Диапазон1"/>
+    <protectedRange sqref="I3:J48 A2:H48 E49:F49" name="Диапазон1"/>
   </protectedRanges>
-  <autoFilter ref="A1:J48"/>
+  <autoFilter ref="A1:J48" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E37" r:id="rId1" display="https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=210044&amp;zone=fed&amp;page=1&amp;dTest=true"/>
+    <hyperlink ref="E37" r:id="rId1" display="https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=210044&amp;zone=fed&amp;page=1&amp;dTest=true" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/information/Виды сведений.xlsx
+++ b/information/Виды сведений.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28F72DF-CD8A-458C-BC41-83372CCA5F82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9EA916-953E-4C84-976C-584CC3CE706D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3300" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4730" yWindow="2810" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1254" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1254'!$A$1:$J$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1254'!$A$1:$L$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="191">
   <si>
     <t>Ведомство</t>
   </si>
@@ -197,12 +197,6 @@
     <t xml:space="preserve"> 1.4.1</t>
   </si>
   <si>
-    <t>VS01090v006-TABL00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.4.2</t>
-  </si>
-  <si>
     <t>VS01090v007-TABL00</t>
   </si>
   <si>
@@ -219,12 +213,6 @@
     <t>1.4.1</t>
   </si>
   <si>
-    <t>VS01084v006-TABL00</t>
-  </si>
-  <si>
-    <t>1.4.2</t>
-  </si>
-  <si>
     <t>VS01084v007-TABL00</t>
   </si>
   <si>
@@ -239,10 +227,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-VS01049v006-TABL00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 VS01049v007-TABL00</t>
   </si>
   <si>
@@ -253,27 +237,15 @@
 VS01085v005-TABL00</t>
   </si>
   <si>
-    <t>VS01085v006-TABL00</t>
-  </si>
-  <si>
     <t xml:space="preserve">VS01085v007-TABL00 </t>
   </si>
   <si>
     <t>Удаление учетной записи в ЕСИА</t>
   </si>
   <si>
-    <t>VS01050v004-TABL00</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
     <t>VS01050v005-TABL00</t>
   </si>
   <si>
-    <t>VS01050v006-TABL00</t>
-  </si>
-  <si>
     <t>VS01050v007-TABL01</t>
   </si>
   <si>
@@ -284,9 +256,6 @@
   </si>
   <si>
     <t>VS01051v005-TABL00</t>
-  </si>
-  <si>
-    <t>VS01051v006-TABL00</t>
   </si>
   <si>
     <t>Минсельхоз</t>
@@ -411,45 +380,18 @@
     <t>Предоставление необходимой для уплаты информации</t>
   </si>
   <si>
-    <t>VS01922v003-RKZN18</t>
-  </si>
-  <si>
-    <t>2.3.0</t>
-  </si>
-  <si>
     <t>Предоставление информации об уплате</t>
   </si>
   <si>
-    <t>VS01918v003-RKZN18</t>
-  </si>
-  <si>
     <t>В Банк</t>
   </si>
   <si>
-    <t>VS01922v002-RKZN18</t>
-  </si>
-  <si>
-    <t>2.2.0</t>
-  </si>
-  <si>
-    <t>VS01918v002-RKZN18</t>
-  </si>
-  <si>
     <t>Подписка на предоставление уведомлений</t>
   </si>
   <si>
-    <t>VS01607v002-RKZN02</t>
-  </si>
-  <si>
     <t>Предоставление уведомлений по подписке</t>
   </si>
   <si>
-    <t>VS01223v005-TABL00</t>
-  </si>
-  <si>
-    <t>VS01223v006-TABL00</t>
-  </si>
-  <si>
     <t>РТК</t>
   </si>
   <si>
@@ -459,25 +401,244 @@
     <t>Универсальный вид сведений для приема заявлений на биометрическую регистрацию</t>
   </si>
   <si>
-    <t xml:space="preserve"> VS00768v005-RTK013</t>
-  </si>
-  <si>
     <t>в ОПЭ</t>
   </si>
   <si>
     <t>Внедрение</t>
   </si>
   <si>
-    <t>Универсальный сервис отправки заявлений и смены статусов на региональном портале государственных услуг (функций) Смоленской области</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	VS02871v002-670107_3T</t>
-  </si>
-  <si>
-    <t>Предоставление сведений из реестра виноградных насаждений</t>
-  </si>
-  <si>
-    <t>VS01114v003-MCXR01</t>
+    <t>Ссылка на описание тестового ВС</t>
+  </si>
+  <si>
+    <t>Ссылка на описание продуктивного ВС</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=320826&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>VS01922v004-RKZN18</t>
+  </si>
+  <si>
+    <t>2.4.0</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=320826&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>VS01918v004-RKZN18</t>
+  </si>
+  <si>
+    <t>VS01607v004-RKZN02</t>
+  </si>
+  <si>
+    <t>VS01223v007-TABL00</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VS00768v004-RTK013</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=83390&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=83390&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=40455&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=40455&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=40685&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=40685&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=163498&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=163498&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=95796&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=95796&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=95858&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=95858&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=102406&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=102406&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=167345&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=167345&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=102398&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=102398&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=167150&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=167150&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=102402&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=102402&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=167163&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=167163&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=102418&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=102418&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=167168&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=167168&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=102408&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=102408&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=167166&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=167166&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=102404&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=102404&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=166940&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=166940&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=168554&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=168554&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=200198&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=200198&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=73920&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=73920&amp;zone=fed&amp;page=1&amp;dTest=True</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=73936&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=73936&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=77228&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=77228&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=100795&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=100795&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=186233&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=186233&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=71184&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=71184&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=202178&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=202178&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=210044&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=210044&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=191759&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=191759&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=321759&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=321759&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=315866&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=315866&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=322378&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=322378&amp;zone=fed&amp;page=1&amp;dTest=true</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=143511&amp;zone=fed&amp;page=1&amp;dTest=false</t>
+  </si>
+  <si>
+    <t>https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=143511&amp;zone=fed&amp;page=1&amp;dTest=true</t>
   </si>
 </sst>
 </file>
@@ -534,25 +695,29 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13.5"/>
-      <color rgb="FF2C2D2E"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -599,10 +764,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -690,9 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,12 +870,21 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -991,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -1005,13 +1177,13 @@
     <col min="4" max="4" width="22.26953125" customWidth="1"/>
     <col min="5" max="5" width="21.81640625" customWidth="1"/>
     <col min="6" max="6" width="26.1796875" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="30.26953125" customWidth="1"/>
-    <col min="9" max="9" width="30.7265625" customWidth="1"/>
-    <col min="10" max="10" width="35.81640625" customWidth="1"/>
+    <col min="7" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="30.26953125" customWidth="1"/>
+    <col min="11" max="11" width="30.7265625" customWidth="1"/>
+    <col min="12" max="12" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,17 +1205,23 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
@@ -1065,13 +1243,19 @@
       <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="43.5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="43.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
@@ -1093,13 +1277,19 @@
       <c r="G3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" s="29" customFormat="1" ht="111" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" s="29" customFormat="1" ht="111" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>18</v>
       </c>
@@ -1112,7 +1302,7 @@
       <c r="D4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -1121,13 +1311,19 @@
       <c r="G4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>25</v>
       </c>
@@ -1149,11 +1345,19 @@
       <c r="G5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="72.5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" ht="72.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>25</v>
       </c>
@@ -1175,11 +1379,19 @@
       <c r="G6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" ht="101.5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" ht="101.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>25</v>
       </c>
@@ -1201,11 +1413,19 @@
       <c r="G7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="H7" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
@@ -1228,10 +1448,12 @@
         <v>39</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>40</v>
       </c>
@@ -1245,19 +1467,27 @@
         <v>13</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="58" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" ht="58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>40</v>
       </c>
@@ -1271,20 +1501,26 @@
         <v>13</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="58" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
+      <c r="H10" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -1297,19 +1533,27 @@
         <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>59</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>40</v>
       </c>
@@ -1323,47 +1567,59 @@
         <v>13</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" ht="101.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="K13" s="15"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="101.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>40</v>
       </c>
@@ -1374,22 +1630,28 @@
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" ht="72.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>40</v>
       </c>
@@ -1403,51 +1665,63 @@
         <v>13</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" ht="101.5" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" ht="72.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10" ht="101.5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" ht="87" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -1457,19 +1731,27 @@
         <v>13</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" ht="101.5" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" ht="87" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>40</v>
       </c>
@@ -1480,22 +1762,28 @@
         <v>27</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" ht="72.5" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>40</v>
       </c>
@@ -1506,22 +1794,30 @@
         <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:10" ht="72.5" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" ht="36.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>40</v>
       </c>
@@ -1535,789 +1831,700 @@
         <v>13</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="1:10" ht="72.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>49</v>
+      <c r="E21" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="1:10" ht="87" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:12" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>60</v>
+      <c r="E22" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:10" ht="87" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:10" ht="87" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="1:12" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="1:12" ht="58" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>42</v>
+        <v>111</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" ht="76.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>27</v>
+        <v>80</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" ht="135" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>42</v>
+      <c r="E27" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" ht="84.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="24"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" ht="109.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>75</v>
+      <c r="B29" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="33" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="I29" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" ht="111.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="12" t="s">
+      <c r="E31" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="15"/>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="J32" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" ht="58" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" ht="183.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K32" s="15"/>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" ht="76.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>19</v>
+        <v>95</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>17</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" ht="71.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="20"/>
+      <c r="L33" s="25"/>
+    </row>
+    <row r="34" spans="1:12" ht="43.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>91</v>
+        <v>101</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" ht="66" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="I34" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34" s="20"/>
+      <c r="L34" s="25"/>
+    </row>
+    <row r="35" spans="1:12" ht="43.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>88</v>
+        <v>101</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" ht="65.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K35" s="20"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="1:12" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:10" ht="94.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="20"/>
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" spans="1:12" ht="93.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K37" s="20"/>
+      <c r="L37" s="25"/>
+    </row>
+    <row r="38" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="1:10" ht="76.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="25"/>
-    </row>
-    <row r="41" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="25"/>
-    </row>
-    <row r="42" spans="1:10" ht="43.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="25"/>
-    </row>
-    <row r="43" spans="1:10" ht="43.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="8" t="s">
+      <c r="H38" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="J38" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="25"/>
-    </row>
-    <row r="44" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="25"/>
-    </row>
-    <row r="45" spans="1:10" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H45" s="18"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="25"/>
-    </row>
-    <row r="46" spans="1:10" ht="84.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="25"/>
-    </row>
-    <row r="47" spans="1:10" ht="93.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H47" s="18"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="25"/>
-    </row>
-    <row r="48" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
-    </row>
-    <row r="49" spans="5:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="E49" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="E50" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>136</v>
-      </c>
+      <c r="K38" s="27"/>
+      <c r="L38" s="28"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="I3:J48 A2:H48 E49:F49" name="Диапазон1"/>
+    <protectedRange sqref="K3:L9 A2:J9 A10:L38" name="Диапазон1"/>
   </protectedRanges>
-  <autoFilter ref="A1:J48" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <autoFilter ref="A1:L38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="E37" r:id="rId1" display="https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=210044&amp;zone=fed&amp;page=1&amp;dTest=true" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E30" r:id="rId1" display="https://smev3.gosuslugi.ru/portal/inquirytype_one.jsp?id=210044&amp;zone=fed&amp;page=1&amp;dTest=true" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I37" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H37" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{26C6C7DB-E8F7-42BD-A308-2A60AFCCF984}"/>
+    <hyperlink ref="H2" r:id="rId5" xr:uid="{A3C385C2-0313-4345-BECD-70B692A13B40}"/>
+    <hyperlink ref="I3" r:id="rId6" xr:uid="{580BE296-F3C9-453E-862D-DCAA60300FC2}"/>
+    <hyperlink ref="H3" r:id="rId7" xr:uid="{0E3E6BC9-14F4-46EF-A20A-9FE295AA42D8}"/>
+    <hyperlink ref="I4" r:id="rId8" xr:uid="{3F7BC98E-D100-4953-BFE6-13C6556E0982}"/>
+    <hyperlink ref="H4" r:id="rId9" xr:uid="{30E74A38-503D-4C1D-8BD6-C7B610A0DF7E}"/>
+    <hyperlink ref="I5" r:id="rId10" xr:uid="{351D8A8A-90BC-40F1-BCE2-D8D67722E6DF}"/>
+    <hyperlink ref="H5" r:id="rId11" xr:uid="{E09362BE-1ACD-47FB-A23C-6B67D740C7A5}"/>
+    <hyperlink ref="I6" r:id="rId12" xr:uid="{3C048BF3-06EF-48A6-9786-625AD2AAB963}"/>
+    <hyperlink ref="H6" r:id="rId13" xr:uid="{13699ECE-1E94-482E-B306-68ADA927FD94}"/>
+    <hyperlink ref="I7" r:id="rId14" xr:uid="{45D231C8-8751-4EBB-BC93-01B74B8C86F4}"/>
+    <hyperlink ref="H7" r:id="rId15" xr:uid="{AD5914CB-BBCD-42BF-9A0C-D2B84AF76921}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{F47B7780-0901-4B2C-8823-E21893AF3CBA}"/>
+    <hyperlink ref="H9" r:id="rId17" xr:uid="{3EC8237E-C309-420A-99F6-F670C8BCD117}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{C6A3AD85-69DF-4ECB-9D73-747015CAA03A}"/>
+    <hyperlink ref="H10" r:id="rId19" xr:uid="{301C80A6-4DB7-432B-AF23-60F2C62318B6}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{8ACCE535-F2B0-4BB3-8EA9-31F39886BC80}"/>
+    <hyperlink ref="H11" r:id="rId21" xr:uid="{4F669CDB-9856-45EC-B158-F8784D5DE719}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{B0560C00-BB72-4BFC-9D82-DC51B4902231}"/>
+    <hyperlink ref="H12" r:id="rId23" xr:uid="{C129D246-B019-452F-8FF7-7A528B9971B6}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{D0686876-F95C-4D27-BD53-4650E672F8AC}"/>
+    <hyperlink ref="H13" r:id="rId25" xr:uid="{ECDF9EEC-DABC-4181-B482-C58B60A3DB43}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{C93BE4D8-F96D-49A2-A4C0-878CF0CDFDDF}"/>
+    <hyperlink ref="H14" r:id="rId27" xr:uid="{0384882D-D76C-498F-9E82-35EB990E185C}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{850605D6-8260-4549-A0B8-9978BFCA86CB}"/>
+    <hyperlink ref="H15" r:id="rId29" xr:uid="{96DCAF53-2D6E-4AC0-82C6-5B67DAB76D61}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{D15D7881-BEB4-43B3-8AB9-EE8048B56D6C}"/>
+    <hyperlink ref="H16" r:id="rId31" xr:uid="{86871F34-5CF7-420B-AA78-35A94203FF3A}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{6971385C-DBBC-4AC8-9DF4-454C7E9B29C6}"/>
+    <hyperlink ref="H17" r:id="rId33" xr:uid="{0FA21427-9C0B-472E-9259-B96250D97853}"/>
+    <hyperlink ref="H18" r:id="rId34" xr:uid="{2FD46A38-84E2-4A03-9C02-81A39F60DA52}"/>
+    <hyperlink ref="I18" r:id="rId35" xr:uid="{72205997-B3A8-4C7F-821C-4DE025A67376}"/>
+    <hyperlink ref="H19" r:id="rId36" xr:uid="{B0F156CE-E832-45CA-960E-67900EC12317}"/>
+    <hyperlink ref="H20" r:id="rId37" xr:uid="{7A7C7BFA-9CC4-48CF-BB3F-A707E40D1E3B}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{945A53EB-F281-450D-95BB-927B7D72E310}"/>
+    <hyperlink ref="I19" r:id="rId39" xr:uid="{6ED8E1AA-6F32-4507-8A0D-E1945C26B3D9}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{E142E713-ED11-4D8A-AC84-07BAA946B490}"/>
+    <hyperlink ref="H21" r:id="rId41" xr:uid="{8AE9EEB8-D3EE-4E78-9628-D38FDDFFA55E}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{45C1E85D-4462-4D65-896C-7B99C2E9C16C}"/>
+    <hyperlink ref="H22" r:id="rId43" xr:uid="{97CE4D0B-1736-45BC-A1D1-73B6AF4CFF91}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{62D8D4A5-0EA0-42EA-AC6D-BD731FC5CBDB}"/>
+    <hyperlink ref="H23" r:id="rId45" xr:uid="{62C21CBE-EC15-4C7D-85F3-F880E75215F0}"/>
+    <hyperlink ref="I24" r:id="rId46" xr:uid="{C676582B-D577-4A4C-B0B1-397C04B0D991}"/>
+    <hyperlink ref="H24" r:id="rId47" xr:uid="{A2927461-7E04-4FA8-9F86-E6BE21DD0FD7}"/>
+    <hyperlink ref="I25" r:id="rId48" xr:uid="{DD6F7C55-017C-4D9E-B49C-46C24A24209F}"/>
+    <hyperlink ref="H25" r:id="rId49" xr:uid="{2AC92F96-2CDA-4E54-9F61-A21918679BC0}"/>
+    <hyperlink ref="I26" r:id="rId50" xr:uid="{F1463786-4BBD-4436-A0C3-2572A382DFB3}"/>
+    <hyperlink ref="H26" r:id="rId51" xr:uid="{D9AA06CF-28AD-454C-BACC-7C0CBA7576B1}"/>
+    <hyperlink ref="H27" r:id="rId52" xr:uid="{94500563-1C96-4B7A-B0EF-48B4A8278FCA}"/>
+    <hyperlink ref="I27" r:id="rId53" xr:uid="{0FB439E6-E530-44D8-BBF2-0B18A4A4B3F3}"/>
+    <hyperlink ref="I28" r:id="rId54" xr:uid="{F411844D-EDA6-403E-9F28-8466C934AE11}"/>
+    <hyperlink ref="H28" r:id="rId55" xr:uid="{ADA451CB-9944-4472-8BFD-730DA2675343}"/>
+    <hyperlink ref="I29" r:id="rId56" xr:uid="{A6786DC7-AD29-4387-86BD-A2508B0874D2}"/>
+    <hyperlink ref="H29" r:id="rId57" xr:uid="{B89E2D75-8E21-424F-BCCC-D6A9FC5D8869}"/>
+    <hyperlink ref="I30" r:id="rId58" xr:uid="{EB661F42-1F8E-4E01-A134-C26F52101A03}"/>
+    <hyperlink ref="H30" r:id="rId59" xr:uid="{0C2AB444-E01F-4997-9144-3C6BB3E0E8AC}"/>
+    <hyperlink ref="I32" r:id="rId60" xr:uid="{DACA7C68-356A-4298-9281-C52201977D3B}"/>
+    <hyperlink ref="H32" r:id="rId61" xr:uid="{FE3E5D21-3890-46B9-8323-F7D207D272AD}"/>
+    <hyperlink ref="I34" r:id="rId62" xr:uid="{01E4AE5C-3C70-4373-A133-7C74F99163A8}"/>
+    <hyperlink ref="H34" r:id="rId63" xr:uid="{C5871156-75F0-4E8C-A6FA-4864036C6248}"/>
+    <hyperlink ref="I35" r:id="rId64" xr:uid="{AF247766-B9C7-433F-B993-D4B95FBC7294}"/>
+    <hyperlink ref="H35" r:id="rId65" xr:uid="{7637F462-8B62-426F-8767-E6352EC4546B}"/>
+    <hyperlink ref="I36" r:id="rId66" xr:uid="{478F182E-05ED-4D17-8FF5-9743E95516E3}"/>
+    <hyperlink ref="H36" r:id="rId67" xr:uid="{68EA0346-F583-4FC9-B707-464AAC1291E8}"/>
+    <hyperlink ref="I38" r:id="rId68" xr:uid="{262C454A-BE23-4E61-A1AD-877827EE90B4}"/>
+    <hyperlink ref="H38" r:id="rId69" xr:uid="{4C93DB56-F3F7-40C4-A6A9-BF527FF75329}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId70"/>
+  <legacyDrawing r:id="rId71"/>
 </worksheet>
 </file>